--- a/CO2-forcing-1751-2014-demo/out/co2_share_timeseries.xlsx
+++ b/CO2-forcing-1751-2014-demo/out/co2_share_timeseries.xlsx
@@ -455,10 +455,10 @@
         <v>1751</v>
       </c>
       <c r="B2" t="n">
-        <v>0.063137941331152</v>
+        <v>0.1500523509527321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.936862058668848</v>
+        <v>0.8499476490472678</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>1752</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1099081871369656</v>
+        <v>0.1409874870971435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8900918128630344</v>
+        <v>0.8590125129028565</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>1753</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1198285500661569</v>
+        <v>0.1541873652928392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8801714499338431</v>
+        <v>0.8458126347071608</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>1754</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09293575115469668</v>
+        <v>0.128136770375099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9070642488453033</v>
+        <v>0.871863229624901</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>1755</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1295732416463324</v>
+        <v>0.1658683912306538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8704267583536676</v>
+        <v>0.8341316087693462</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>1756</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1496808337030118</v>
+        <v>0.1893779965612245</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8503191662969882</v>
+        <v>0.8106220034387754</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>1757</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1555997120691046</v>
+        <v>0.2136126229275468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8444002879308954</v>
+        <v>0.7863873770724532</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>1758</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1773979907227004</v>
+        <v>0.2440769024622738</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8226020092772995</v>
+        <v>0.7559230975377261</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>1759</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1950015078859673</v>
+        <v>0.2665430303518785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8049984921140327</v>
+        <v>0.7334569696481216</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>1760</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2118510504653775</v>
+        <v>0.2828078998325833</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7881489495346226</v>
+        <v>0.7171921001674166</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>1761</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2236893313041058</v>
+        <v>0.2952125182155473</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7763106686958942</v>
+        <v>0.7047874817844527</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>1762</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2410177550561552</v>
+        <v>0.290937289839496</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7589822449438448</v>
+        <v>0.709062710160504</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>1763</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2483423847470606</v>
+        <v>0.3027812436654237</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7516576152529394</v>
+        <v>0.6972187563345763</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>1764</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2608188625885746</v>
+        <v>0.3206283291746068</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7391811374114253</v>
+        <v>0.6793716708253933</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>1765</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2699120927530233</v>
+        <v>0.3318185452277338</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7300879072469767</v>
+        <v>0.6681814547722662</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>1766</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2856071915993245</v>
+        <v>0.3475913187058444</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7143928084006755</v>
+        <v>0.6524086812941556</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>1767</v>
       </c>
       <c r="B18" t="n">
-        <v>0.296781859221194</v>
+        <v>0.3572254016328315</v>
       </c>
       <c r="C18" t="n">
-        <v>0.703218140778806</v>
+        <v>0.6427745983671685</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>1768</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3073193636381562</v>
+        <v>0.3583495972579931</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6926806363618437</v>
+        <v>0.6416504027420069</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>1769</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3149916757218132</v>
+        <v>0.3732975228218198</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6850083242781867</v>
+        <v>0.6267024771781802</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>1770</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3259621038264444</v>
+        <v>0.3844703922831574</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6740378961735556</v>
+        <v>0.6155296077168426</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>1771</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3359897412855112</v>
+        <v>0.3983605594911915</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6640102587144888</v>
+        <v>0.6016394405088085</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>1772</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3453335136235725</v>
+        <v>0.4101033684538363</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6546664863764274</v>
+        <v>0.5898966315461637</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>1773</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3592606132781513</v>
+        <v>0.4186962926172975</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6407393867218486</v>
+        <v>0.5813037073827024</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>1774</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3711535599337761</v>
+        <v>0.4323112352839419</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6288464400662239</v>
+        <v>0.5676887647160581</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>1775</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3733655175000354</v>
+        <v>0.442629111223769</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6266344824999647</v>
+        <v>0.557370888776231</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>1776</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3772217380938754</v>
+        <v>0.4510285788153952</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6227782619061246</v>
+        <v>0.5489714211846047</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>1777</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3849109949454951</v>
+        <v>0.4605313252498163</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6150890050545049</v>
+        <v>0.5394686747501837</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>1778</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3946385178951529</v>
+        <v>0.4712303451824123</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6053614821048471</v>
+        <v>0.5287696548175878</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>1779</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4054569973865488</v>
+        <v>0.4831181582334329</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5945430026134512</v>
+        <v>0.5168818417665672</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>1780</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4155303786675243</v>
+        <v>0.4899080605926294</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5844696213324757</v>
+        <v>0.5100919394073706</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>1781</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4271063858228279</v>
+        <v>0.4963442420545693</v>
       </c>
       <c r="C32" t="n">
-        <v>0.572893614177172</v>
+        <v>0.5036557579454306</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>1782</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4323736985363638</v>
+        <v>0.4928488975252272</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5676263014636362</v>
+        <v>0.5071511024747728</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>1783</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4384559664829406</v>
+        <v>0.5042727265898697</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5615440335170594</v>
+        <v>0.4957272734101303</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>1784</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4487638667195948</v>
+        <v>0.5088031370235219</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5512361332804052</v>
+        <v>0.4911968629764781</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>1785</v>
       </c>
       <c r="B36" t="n">
-        <v>0.456497676504898</v>
+        <v>0.5126568625268557</v>
       </c>
       <c r="C36" t="n">
-        <v>0.543502323495102</v>
+        <v>0.4873431374731443</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>1786</v>
       </c>
       <c r="B37" t="n">
-        <v>0.463915995588046</v>
+        <v>0.5138359295374618</v>
       </c>
       <c r="C37" t="n">
-        <v>0.536084004411954</v>
+        <v>0.4861640704625382</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>1787</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4696925275761678</v>
+        <v>0.5177186619438037</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5303074724238321</v>
+        <v>0.4822813380561963</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>1788</v>
       </c>
       <c r="B39" t="n">
-        <v>0.473271647160254</v>
+        <v>0.5265798402705669</v>
       </c>
       <c r="C39" t="n">
-        <v>0.526728352839746</v>
+        <v>0.4734201597294331</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>1789</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4806647930707671</v>
+        <v>0.5332335292149405</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5193352069292329</v>
+        <v>0.4667664707850595</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>1790</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4872776477967182</v>
+        <v>0.5374670371736687</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5127223522032818</v>
+        <v>0.4625329628263313</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>1791</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4917084886257311</v>
+        <v>0.5437483525879944</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5082915113742689</v>
+        <v>0.4562516474120056</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>1792</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4959607731760257</v>
+        <v>0.5462549797727502</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5040392268239744</v>
+        <v>0.4537450202272498</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>1793</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5023528660828929</v>
+        <v>0.5556870724271769</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4976471339171071</v>
+        <v>0.4443129275728232</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>1794</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5077758975573541</v>
+        <v>0.5563831302036264</v>
       </c>
       <c r="C45" t="n">
-        <v>0.492224102442646</v>
+        <v>0.4436168697963736</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>1795</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5136952805593371</v>
+        <v>0.557802715318338</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4863047194406629</v>
+        <v>0.442197284681662</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>1796</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5188176574808603</v>
+        <v>0.5637182655459511</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4811823425191398</v>
+        <v>0.4362817344540489</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>1797</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5243908434273662</v>
+        <v>0.5669131395493396</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4756091565726338</v>
+        <v>0.4330868604506604</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>1798</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5285298607453653</v>
+        <v>0.5723669388941566</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4714701392546347</v>
+        <v>0.4276330611058434</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>1799</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5351935134205092</v>
+        <v>0.5793428945321843</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4648064865794908</v>
+        <v>0.4206571054678157</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>1800</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5403364581433913</v>
+        <v>0.5834633408223251</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4596635418566088</v>
+        <v>0.4165366591776749</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>1801</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5449127031739258</v>
+        <v>0.5852280439801429</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4550872968260742</v>
+        <v>0.4147719560198571</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>1802</v>
       </c>
       <c r="B53" t="n">
-        <v>0.549673654411835</v>
+        <v>0.589983059865605</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4503263455881649</v>
+        <v>0.410016940134395</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>1803</v>
       </c>
       <c r="B54" t="n">
-        <v>0.554774560909159</v>
+        <v>0.5942941715374096</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4452254390908411</v>
+        <v>0.4057058284625903</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>1804</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5583506849737643</v>
+        <v>0.5980825466718301</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4416493150262357</v>
+        <v>0.4019174533281699</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>1805</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5633889288803411</v>
+        <v>0.6007679811445007</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4366110711196589</v>
+        <v>0.3992320188554993</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>1806</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5665564169578688</v>
+        <v>0.602018728021009</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4334435830421312</v>
+        <v>0.3979812719789911</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>1807</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5704638409930645</v>
+        <v>0.6073561443454538</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4295361590069355</v>
+        <v>0.3926438556545461</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>1808</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5745895059147664</v>
+        <v>0.6101803059631662</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4254104940852336</v>
+        <v>0.3898196940368339</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>1809</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5781147404713568</v>
+        <v>0.6133521505574713</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4218852595286432</v>
+        <v>0.3866478494425287</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>1810</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5823695956960344</v>
+        <v>0.6205878282537467</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4176304043039656</v>
+        <v>0.3794121717462534</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>1811</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5861564748689976</v>
+        <v>0.6244614720921681</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4138435251310025</v>
+        <v>0.3755385279078319</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>1812</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5903200719355336</v>
+        <v>0.6279801561485059</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4096799280644665</v>
+        <v>0.3720198438514941</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>1813</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5936941548544161</v>
+        <v>0.6310588956351784</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4063058451455838</v>
+        <v>0.3689411043648217</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>1814</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5969503943072999</v>
+        <v>0.6332665157862178</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4030496056927001</v>
+        <v>0.3667334842137821</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>1815</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6005567983535385</v>
+        <v>0.6398016322600807</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3994432016464615</v>
+        <v>0.3601983677399193</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>1816</v>
       </c>
       <c r="B67" t="n">
-        <v>0.604392267575933</v>
+        <v>0.6421998603004998</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3956077324240669</v>
+        <v>0.3578001396995002</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>1817</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6086303269808689</v>
+        <v>0.6461316914911216</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3913696730191311</v>
+        <v>0.3538683085088783</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>1818</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6132853943882715</v>
+        <v>0.6512792749666798</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3867146056117286</v>
+        <v>0.3487207250333202</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>1819</v>
       </c>
       <c r="B70" t="n">
-        <v>0.615409080733875</v>
+        <v>0.6530713952557302</v>
       </c>
       <c r="C70" t="n">
-        <v>0.384590919266125</v>
+        <v>0.3469286047442697</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>1820</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6188227809203087</v>
+        <v>0.6544494881661745</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3811772190796913</v>
+        <v>0.3455505118338255</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>1821</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6220755331804417</v>
+        <v>0.6579735594560812</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3779244668195583</v>
+        <v>0.3420264405439189</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>1822</v>
       </c>
       <c r="B73" t="n">
-        <v>0.625148463293861</v>
+        <v>0.6589104086844116</v>
       </c>
       <c r="C73" t="n">
-        <v>0.374851536706139</v>
+        <v>0.3410895913155884</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>1823</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6282174416694088</v>
+        <v>0.6618435710527418</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3717825583305912</v>
+        <v>0.3381564289472582</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>1824</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6314439105024611</v>
+        <v>0.6641575232448391</v>
       </c>
       <c r="C75" t="n">
-        <v>0.368556089497539</v>
+        <v>0.3358424767551609</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>1825</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6345846856353858</v>
+        <v>0.6680558626938083</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3654153143646142</v>
+        <v>0.3319441373061917</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>1826</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6382626373196437</v>
+        <v>0.6677582610431618</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3617373626803563</v>
+        <v>0.3322417389568382</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>1827</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6412636697707953</v>
+        <v>0.6732376419183553</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3587363302292046</v>
+        <v>0.3267623580816447</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>1828</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6430092409563136</v>
+        <v>0.6754589497432528</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3569907590436863</v>
+        <v>0.3245410502567471</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>1829</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6457120918719186</v>
+        <v>0.6764700281347337</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3542879081280814</v>
+        <v>0.3235299718652663</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>1830</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6482461587243626</v>
+        <v>0.6813775298854532</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3517538412756374</v>
+        <v>0.3186224701145468</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>1831</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6513459408737662</v>
+        <v>0.6834020693764477</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3486540591262338</v>
+        <v>0.3165979306235524</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>1832</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6542939665905939</v>
+        <v>0.6852293266342625</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3457060334094061</v>
+        <v>0.3147706733657375</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>1833</v>
       </c>
       <c r="B84" t="n">
-        <v>0.656166135757304</v>
+        <v>0.6859475055784668</v>
       </c>
       <c r="C84" t="n">
-        <v>0.343833864242696</v>
+        <v>0.3140524944215332</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>1834</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6584841065431049</v>
+        <v>0.6862678016470398</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3415158934568952</v>
+        <v>0.3137321983529602</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>1835</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6615675926959415</v>
+        <v>0.6887621591654377</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3384324073040585</v>
+        <v>0.3112378408345623</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>1836</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6643193349936135</v>
+        <v>0.692371278947634</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3356806650063865</v>
+        <v>0.307628721052366</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>1837</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6668502183659041</v>
+        <v>0.6923334297964009</v>
       </c>
       <c r="C88" t="n">
-        <v>0.333149781634096</v>
+        <v>0.3076665702035991</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>1838</v>
       </c>
       <c r="B89" t="n">
-        <v>0.669217280921057</v>
+        <v>0.6927694184225707</v>
       </c>
       <c r="C89" t="n">
-        <v>0.330782719078943</v>
+        <v>0.3072305815774293</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>1839</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6714205501200596</v>
+        <v>0.6952505187055423</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3285794498799404</v>
+        <v>0.3047494812944577</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>1840</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6741174992095815</v>
+        <v>0.6968128676983855</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3258825007904184</v>
+        <v>0.3031871323016145</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>1841</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6762626921414286</v>
+        <v>0.6983337095229014</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3237373078585714</v>
+        <v>0.3016662904770986</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>1842</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6787643985572223</v>
+        <v>0.6995505917812043</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3212356014427777</v>
+        <v>0.3004494082187957</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>1843</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6809210761766059</v>
+        <v>0.7011007684069744</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3190789238233941</v>
+        <v>0.2988992315930256</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>1844</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6832591637409225</v>
+        <v>0.701266037227725</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3167408362590774</v>
+        <v>0.298733962772275</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>1845</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6857016983771904</v>
+        <v>0.7050394588091563</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3142983016228096</v>
+        <v>0.2949605411908436</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>1846</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6872866511959123</v>
+        <v>0.7055889508473585</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3127133488040878</v>
+        <v>0.2944110491526415</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>1847</v>
       </c>
       <c r="B98" t="n">
-        <v>0.689473807360983</v>
+        <v>0.706858969949314</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3105261926390171</v>
+        <v>0.293141030050686</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>1848</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6917209079816123</v>
+        <v>0.7087867675441577</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3082790920183876</v>
+        <v>0.2912132324558424</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>1849</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6936122694002188</v>
+        <v>0.7091691900690075</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3063877305997811</v>
+        <v>0.2908308099309926</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>1850</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6958836480452654</v>
+        <v>0.7132961686111401</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3041163519547347</v>
+        <v>0.28670383138886</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>1851</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6980747011251485</v>
+        <v>0.7136104476541285</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3019252988748515</v>
+        <v>0.2863895523458715</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>1852</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7002243235930417</v>
+        <v>0.7148990943320576</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2997756764069583</v>
+        <v>0.2851009056679424</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>1853</v>
       </c>
       <c r="B104" t="n">
-        <v>0.701992758892978</v>
+        <v>0.7175801463959121</v>
       </c>
       <c r="C104" t="n">
-        <v>0.298007241107022</v>
+        <v>0.2824198536040879</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>1854</v>
       </c>
       <c r="B105" t="n">
-        <v>0.7037892320239274</v>
+        <v>0.7186412325931905</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2962107679760727</v>
+        <v>0.2813587674068095</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>1855</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7057244071742848</v>
+        <v>0.7203518663098342</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2942755928257152</v>
+        <v>0.2796481336901658</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>1856</v>
       </c>
       <c r="B107" t="n">
-        <v>0.7070902737257948</v>
+        <v>0.7193697338380165</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2929097262742052</v>
+        <v>0.2806302661619835</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>1857</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7087015221781411</v>
+        <v>0.7193318747983815</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2912984778218589</v>
+        <v>0.2806681252016185</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>1858</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7103568590612825</v>
+        <v>0.7205806380000884</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2896431409387175</v>
+        <v>0.2794193619999116</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>1859</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7120743355444001</v>
+        <v>0.7227991819598411</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2879256644555999</v>
+        <v>0.2772008180401589</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>1860</v>
       </c>
       <c r="B111" t="n">
-        <v>0.714046943297703</v>
+        <v>0.7248124814839786</v>
       </c>
       <c r="C111" t="n">
-        <v>0.285953056702297</v>
+        <v>0.2751875185160214</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>1861</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7154749498783655</v>
+        <v>0.7264585414233072</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2845250501216345</v>
+        <v>0.2735414585766928</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>1862</v>
       </c>
       <c r="B113" t="n">
-        <v>0.717419489905787</v>
+        <v>0.7283357058949927</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2825805100942131</v>
+        <v>0.2716642941050072</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>1863</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7190071416061388</v>
+        <v>0.7304762141331111</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2809928583938612</v>
+        <v>0.2695237858668889</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>1864</v>
       </c>
       <c r="B115" t="n">
-        <v>0.7211893946952693</v>
+        <v>0.7322130596728768</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2788106053047307</v>
+        <v>0.2677869403271232</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>1865</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7226277129761534</v>
+        <v>0.7336541826606002</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2773722870238466</v>
+        <v>0.2663458173393998</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>1866</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7242612139551268</v>
+        <v>0.7352180412548085</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2757387860448732</v>
+        <v>0.2647819587451916</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>1867</v>
       </c>
       <c r="B118" t="n">
-        <v>0.7259188478468213</v>
+        <v>0.7369163772062327</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2740811521531787</v>
+        <v>0.2630836227937673</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>1868</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7272293977987752</v>
+        <v>0.7387029849372069</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2727706022012248</v>
+        <v>0.2612970150627931</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>1869</v>
       </c>
       <c r="B120" t="n">
-        <v>0.7285001934179129</v>
+        <v>0.7378153181888254</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2714998065820871</v>
+        <v>0.2621846818111745</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>1870</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7301392480139435</v>
+        <v>0.7402021773037064</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2698607519860565</v>
+        <v>0.2597978226962936</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>1871</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7320020921876598</v>
+        <v>0.742086276695585</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2679979078123402</v>
+        <v>0.257913723304415</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>1872</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7332847820338674</v>
+        <v>0.7427413273117186</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2667152179661326</v>
+        <v>0.2572586726882815</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>1873</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7344693545501179</v>
+        <v>0.7441381844205761</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2655306454498821</v>
+        <v>0.2558618155794239</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>1874</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7359024208241328</v>
+        <v>0.7449891974697848</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2640975791758671</v>
+        <v>0.2550108025302152</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>1875</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7375444240576911</v>
+        <v>0.7455345833530538</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2624555759423089</v>
+        <v>0.2544654166469462</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>1876</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7389575688954957</v>
+        <v>0.7457790503474421</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2610424311045043</v>
+        <v>0.2542209496525579</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>1877</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7403049206610655</v>
+        <v>0.7464740907070621</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2596950793389345</v>
+        <v>0.253525909292938</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>1878</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7418567972735254</v>
+        <v>0.748377520611654</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2581432027264746</v>
+        <v>0.251622479388346</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>1879</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7433438675487032</v>
+        <v>0.7486701986594602</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2566561324512968</v>
+        <v>0.2513298013405398</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>1880</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7447207620858576</v>
+        <v>0.7510447844151648</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2552792379141424</v>
+        <v>0.2489552155848353</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>1881</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7460183334911692</v>
+        <v>0.752111619083773</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2539816665088308</v>
+        <v>0.247888380916227</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>1882</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7472771034697975</v>
+        <v>0.7533886842251732</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2527228965302025</v>
+        <v>0.2466113157748267</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>1883</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7483236211048826</v>
+        <v>0.7549761754168541</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2516763788951175</v>
+        <v>0.2450238245831458</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>1884</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7497840135987118</v>
+        <v>0.7555005168522323</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2502159864012881</v>
+        <v>0.2444994831477677</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>1885</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7509539932285986</v>
+        <v>0.7565856356344294</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2490460067714014</v>
+        <v>0.2434143643655707</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>1886</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7522013939955078</v>
+        <v>0.7568320510215816</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2477986060044922</v>
+        <v>0.2431679489784184</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>1887</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7531059879408034</v>
+        <v>0.7587690017670831</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2468940120591966</v>
+        <v>0.2412309982329169</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>1888</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7542805916391709</v>
+        <v>0.7590857107356275</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2457194083608291</v>
+        <v>0.2409142892643725</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>1889</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7554564839811543</v>
+        <v>0.7597205856545454</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2445435160188458</v>
+        <v>0.2402794143454546</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>1890</v>
       </c>
       <c r="B141" t="n">
-        <v>0.7567208765890514</v>
+        <v>0.7605675561510128</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2432791234109486</v>
+        <v>0.2394324438489872</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>1891</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7579495528342738</v>
+        <v>0.7623492013148815</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2420504471657262</v>
+        <v>0.2376507986851185</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>1892</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7592548955172014</v>
+        <v>0.7633337877739016</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2407451044827986</v>
+        <v>0.2366662122260984</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>1893</v>
       </c>
       <c r="B144" t="n">
-        <v>0.7604767572928746</v>
+        <v>0.765138802414316</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2395232427071254</v>
+        <v>0.2348611975856841</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>1894</v>
       </c>
       <c r="B145" t="n">
-        <v>0.7615757259985125</v>
+        <v>0.7671790950880908</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2384242740014874</v>
+        <v>0.2328209049119092</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>1895</v>
       </c>
       <c r="B146" t="n">
-        <v>0.7629866838342707</v>
+        <v>0.765912932169783</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2370133161657293</v>
+        <v>0.2340870678302171</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>1896</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7639689977589469</v>
+        <v>0.7661808441588989</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2360310022410532</v>
+        <v>0.2338191558411012</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>1897</v>
       </c>
       <c r="B148" t="n">
-        <v>0.7651853607500142</v>
+        <v>0.7660092757849454</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2348146392499858</v>
+        <v>0.2339907242150546</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>1898</v>
       </c>
       <c r="B149" t="n">
-        <v>0.7660792698902703</v>
+        <v>0.7672114880137184</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2339207301097296</v>
+        <v>0.2327885119862816</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>1899</v>
       </c>
       <c r="B150" t="n">
-        <v>0.7672394149670217</v>
+        <v>0.7677051295916014</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2327605850329782</v>
+        <v>0.2322948704083986</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>1900</v>
       </c>
       <c r="B151" t="n">
-        <v>0.7680749541260177</v>
+        <v>0.7682304717507574</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2319250458739824</v>
+        <v>0.2317695282492426</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>1901</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7694150691299181</v>
+        <v>0.7687877531090301</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2305849308700819</v>
+        <v>0.2312122468909699</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>1902</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7703630989808378</v>
+        <v>0.76964962983514</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2296369010191622</v>
+        <v>0.23035037016486</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>1903</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7714445114571249</v>
+        <v>0.7706880325012024</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2285554885428752</v>
+        <v>0.2293119674987976</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>1904</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7724726347616436</v>
+        <v>0.7727352286548556</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2275273652383564</v>
+        <v>0.2272647713451445</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>1905</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7734648708935536</v>
+        <v>0.7731966440303351</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2265351291064463</v>
+        <v>0.2268033559696649</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>1906</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7746465340083295</v>
+        <v>0.7737532577657522</v>
       </c>
       <c r="C157" t="n">
-        <v>0.2253534659916706</v>
+        <v>0.2262467422342478</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>1907</v>
       </c>
       <c r="B158" t="n">
-        <v>0.7755178655527279</v>
+        <v>0.7739294793667304</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2244821344472721</v>
+        <v>0.2260705206332696</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>1908</v>
       </c>
       <c r="B159" t="n">
-        <v>0.7764301665810825</v>
+        <v>0.7748623823032674</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2235698334189174</v>
+        <v>0.2251376176967325</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>1909</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7771820106052175</v>
+        <v>0.7747344226021722</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2228179893947825</v>
+        <v>0.2252655773978279</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>1910</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7781885187953701</v>
+        <v>0.7757617374472517</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2218114812046299</v>
+        <v>0.2242382625527483</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>1911</v>
       </c>
       <c r="B162" t="n">
-        <v>0.7793990757856392</v>
+        <v>0.7771649806487432</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2206009242143609</v>
+        <v>0.2228350193512568</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>1912</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7804300286089865</v>
+        <v>0.7773818457641658</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2195699713910135</v>
+        <v>0.2226181542358342</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>1913</v>
       </c>
       <c r="B164" t="n">
-        <v>0.781345518382646</v>
+        <v>0.7783797571805288</v>
       </c>
       <c r="C164" t="n">
-        <v>0.218654481617354</v>
+        <v>0.2216202428194713</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>1914</v>
       </c>
       <c r="B165" t="n">
-        <v>0.7825418422625132</v>
+        <v>0.779712642069437</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2174581577374868</v>
+        <v>0.2202873579305629</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>1915</v>
       </c>
       <c r="B166" t="n">
-        <v>0.7834015468950988</v>
+        <v>0.7803401883584822</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2165984531049012</v>
+        <v>0.2196598116415178</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>1916</v>
       </c>
       <c r="B167" t="n">
-        <v>0.7843721449674711</v>
+        <v>0.7806414293894023</v>
       </c>
       <c r="C167" t="n">
-        <v>0.215627855032529</v>
+        <v>0.2193585706105977</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>1917</v>
       </c>
       <c r="B168" t="n">
-        <v>0.7854168894176908</v>
+        <v>0.781258964682478</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2145831105823091</v>
+        <v>0.218741035317522</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>1918</v>
       </c>
       <c r="B169" t="n">
-        <v>0.7861909605275756</v>
+        <v>0.7817299504691831</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2138090394724244</v>
+        <v>0.2182700495308168</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>1919</v>
       </c>
       <c r="B170" t="n">
-        <v>0.7869493978101668</v>
+        <v>0.7805794095767743</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2130506021898332</v>
+        <v>0.2194205904232257</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>1920</v>
       </c>
       <c r="B171" t="n">
-        <v>0.7877907070901051</v>
+        <v>0.7810785893913542</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2122092929098948</v>
+        <v>0.2189214106086458</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>1921</v>
       </c>
       <c r="B172" t="n">
-        <v>0.7887661844770889</v>
+        <v>0.7812211420146062</v>
       </c>
       <c r="C172" t="n">
-        <v>0.2112338155229111</v>
+        <v>0.2187788579853938</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>1922</v>
       </c>
       <c r="B173" t="n">
-        <v>0.7895905695129262</v>
+        <v>0.7829924330831703</v>
       </c>
       <c r="C173" t="n">
-        <v>0.2104094304870739</v>
+        <v>0.2170075669168297</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>1923</v>
       </c>
       <c r="B174" t="n">
-        <v>0.7903979264496811</v>
+        <v>0.783640407786295</v>
       </c>
       <c r="C174" t="n">
-        <v>0.209602073550319</v>
+        <v>0.2163595922137051</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>1924</v>
       </c>
       <c r="B175" t="n">
-        <v>0.7913469964667659</v>
+        <v>0.7840718927594313</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2086530035332342</v>
+        <v>0.2159281072405687</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>1925</v>
       </c>
       <c r="B176" t="n">
-        <v>0.7919631363393007</v>
+        <v>0.7849946393487848</v>
       </c>
       <c r="C176" t="n">
-        <v>0.2080368636606993</v>
+        <v>0.2150053606512153</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>1926</v>
       </c>
       <c r="B177" t="n">
-        <v>0.7927930610755354</v>
+        <v>0.7860872454157016</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2072069389244646</v>
+        <v>0.2139127545842984</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>1927</v>
       </c>
       <c r="B178" t="n">
-        <v>0.7937958841350088</v>
+        <v>0.7866039097349733</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2062041158649912</v>
+        <v>0.2133960902650267</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>1928</v>
       </c>
       <c r="B179" t="n">
-        <v>0.7945218654920962</v>
+        <v>0.787412429870806</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2054781345079038</v>
+        <v>0.212587570129194</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>1929</v>
       </c>
       <c r="B180" t="n">
-        <v>0.7954942284222954</v>
+        <v>0.7883211991825889</v>
       </c>
       <c r="C180" t="n">
-        <v>0.2045057715777046</v>
+        <v>0.2116788008174111</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>1930</v>
       </c>
       <c r="B181" t="n">
-        <v>0.7962339436673654</v>
+        <v>0.7884381971418135</v>
       </c>
       <c r="C181" t="n">
-        <v>0.2037660563326346</v>
+        <v>0.2115618028581865</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>1931</v>
       </c>
       <c r="B182" t="n">
-        <v>0.7969604843359903</v>
+        <v>0.7884951244414794</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2030395156640097</v>
+        <v>0.2115048755585206</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>1932</v>
       </c>
       <c r="B183" t="n">
-        <v>0.7978618987216509</v>
+        <v>0.7890523190726295</v>
       </c>
       <c r="C183" t="n">
-        <v>0.2021381012783491</v>
+        <v>0.2109476809273705</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>1933</v>
       </c>
       <c r="B184" t="n">
-        <v>0.7986665027884692</v>
+        <v>0.7899225853187906</v>
       </c>
       <c r="C184" t="n">
-        <v>0.2013334972115308</v>
+        <v>0.2100774146812094</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>1934</v>
       </c>
       <c r="B185" t="n">
-        <v>0.7995630016630728</v>
+        <v>0.790384364374824</v>
       </c>
       <c r="C185" t="n">
-        <v>0.2004369983369272</v>
+        <v>0.2096156356251761</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>1935</v>
       </c>
       <c r="B186" t="n">
-        <v>0.8003728214188913</v>
+        <v>0.7907017901942432</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1996271785811087</v>
+        <v>0.2092982098057567</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>1936</v>
       </c>
       <c r="B187" t="n">
-        <v>0.8008963694484328</v>
+        <v>0.7910949592779855</v>
       </c>
       <c r="C187" t="n">
-        <v>0.1991036305515672</v>
+        <v>0.2089050407220145</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>1937</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8015288459568907</v>
+        <v>0.7923483066852864</v>
       </c>
       <c r="C188" t="n">
-        <v>0.1984711540431093</v>
+        <v>0.2076516933147135</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>1938</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8023065739091074</v>
+        <v>0.7930840452326768</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1976934260908926</v>
+        <v>0.2069159547673231</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>1939</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8029101683769053</v>
+        <v>0.793527578936203</v>
       </c>
       <c r="C190" t="n">
-        <v>0.1970898316230947</v>
+        <v>0.206472421063797</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>1940</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8038511036223029</v>
+        <v>0.793865388552374</v>
       </c>
       <c r="C191" t="n">
-        <v>0.196148896377697</v>
+        <v>0.206134611447626</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>1941</v>
       </c>
       <c r="B192" t="n">
-        <v>0.8045147397389734</v>
+        <v>0.7941178403370002</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1954852602610266</v>
+        <v>0.2058821596629998</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>1942</v>
       </c>
       <c r="B193" t="n">
-        <v>0.8052048478388114</v>
+        <v>0.7944492615932901</v>
       </c>
       <c r="C193" t="n">
-        <v>0.1947951521611886</v>
+        <v>0.2055507384067099</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>1943</v>
       </c>
       <c r="B194" t="n">
-        <v>0.8059753383100788</v>
+        <v>0.7955506214411653</v>
       </c>
       <c r="C194" t="n">
-        <v>0.1940246616899212</v>
+        <v>0.2044493785588347</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>1944</v>
       </c>
       <c r="B195" t="n">
-        <v>0.8066131318422444</v>
+        <v>0.7964189393377282</v>
       </c>
       <c r="C195" t="n">
-        <v>0.1933868681577557</v>
+        <v>0.2035810606622718</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>1945</v>
       </c>
       <c r="B196" t="n">
-        <v>0.8072599895841496</v>
+        <v>0.7974364121682722</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1927400104158505</v>
+        <v>0.2025635878317278</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>1946</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8077022092217546</v>
+        <v>0.7972646634104122</v>
       </c>
       <c r="C197" t="n">
-        <v>0.1922977907782454</v>
+        <v>0.2027353365895877</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>1947</v>
       </c>
       <c r="B198" t="n">
-        <v>0.8084394151077572</v>
+        <v>0.7977686225419011</v>
       </c>
       <c r="C198" t="n">
-        <v>0.1915605848922428</v>
+        <v>0.2022313774580989</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>1948</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8092413333183341</v>
+        <v>0.7981281554886858</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1907586666816659</v>
+        <v>0.2018718445113143</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>1949</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8098136965422464</v>
+        <v>0.7983304056533583</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1901863034577536</v>
+        <v>0.2016695943466417</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>1950</v>
       </c>
       <c r="B201" t="n">
-        <v>0.8106124246637815</v>
+        <v>0.7990503586812741</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1893875753362185</v>
+        <v>0.2009496413187259</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>1951</v>
       </c>
       <c r="B202" t="n">
-        <v>0.8113086213264717</v>
+        <v>0.8000251142065026</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1886913786735282</v>
+        <v>0.1999748857934974</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>1952</v>
       </c>
       <c r="B203" t="n">
-        <v>0.812098644994897</v>
+        <v>0.8007092595795952</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1879013550051029</v>
+        <v>0.1992907404204049</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>1953</v>
       </c>
       <c r="B204" t="n">
-        <v>0.8126124851178198</v>
+        <v>0.801262553756746</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1873875148821802</v>
+        <v>0.1987374462432539</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>1954</v>
       </c>
       <c r="B205" t="n">
-        <v>0.8133456780791716</v>
+        <v>0.8012721954557279</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1866543219208284</v>
+        <v>0.1987278045442721</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>1955</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8138383233683691</v>
+        <v>0.8015245326715141</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1861616766316308</v>
+        <v>0.1984754673284859</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>1956</v>
       </c>
       <c r="B207" t="n">
-        <v>0.8144511928998027</v>
+        <v>0.8024518656954156</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1855488071001972</v>
+        <v>0.1975481343045845</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>1957</v>
       </c>
       <c r="B208" t="n">
-        <v>0.81518099175402</v>
+        <v>0.8027214799386712</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1848190082459799</v>
+        <v>0.1972785200613288</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>1958</v>
       </c>
       <c r="B209" t="n">
-        <v>0.816041735441271</v>
+        <v>0.8029663302340266</v>
       </c>
       <c r="C209" t="n">
-        <v>0.183958264558729</v>
+        <v>0.1970336697659734</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>1959</v>
       </c>
       <c r="B210" t="n">
-        <v>0.8166302153120663</v>
+        <v>0.8038252065783265</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1833697846879337</v>
+        <v>0.1961747934216735</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>1960</v>
       </c>
       <c r="B211" t="n">
-        <v>0.8171116416315484</v>
+        <v>0.8043933725546885</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1828883583684516</v>
+        <v>0.1956066274453116</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>1961</v>
       </c>
       <c r="B212" t="n">
-        <v>0.8177259431340965</v>
+        <v>0.8055170717588762</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1822740568659035</v>
+        <v>0.1944829282411238</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>1962</v>
       </c>
       <c r="B213" t="n">
-        <v>0.8182964813637832</v>
+        <v>0.8058496841108321</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1817035186362168</v>
+        <v>0.1941503158891679</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>1963</v>
       </c>
       <c r="B214" t="n">
-        <v>0.8189048976166668</v>
+        <v>0.8064181225421916</v>
       </c>
       <c r="C214" t="n">
-        <v>0.1810951023833332</v>
+        <v>0.1935818774578084</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>1964</v>
       </c>
       <c r="B215" t="n">
-        <v>0.81941789775234</v>
+        <v>0.8073019796273598</v>
       </c>
       <c r="C215" t="n">
-        <v>0.18058210224766</v>
+        <v>0.1926980203726401</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>1965</v>
       </c>
       <c r="B216" t="n">
-        <v>0.8199771562497055</v>
+        <v>0.8079273413419088</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1800228437502946</v>
+        <v>0.1920726586580912</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>1966</v>
       </c>
       <c r="B217" t="n">
-        <v>0.8205037323132659</v>
+        <v>0.8082623689083004</v>
       </c>
       <c r="C217" t="n">
-        <v>0.1794962676867341</v>
+        <v>0.1917376310916996</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>1967</v>
       </c>
       <c r="B218" t="n">
-        <v>0.8211552729791446</v>
+        <v>0.8088581313189269</v>
       </c>
       <c r="C218" t="n">
-        <v>0.1788447270208554</v>
+        <v>0.1911418686810731</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>1968</v>
       </c>
       <c r="B219" t="n">
-        <v>0.8216348412917578</v>
+        <v>0.809159237200994</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1783651587082423</v>
+        <v>0.1908407627990059</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>1969</v>
       </c>
       <c r="B220" t="n">
-        <v>0.8220992306964884</v>
+        <v>0.8094219904748721</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1779007693035117</v>
+        <v>0.1905780095251279</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>1970</v>
       </c>
       <c r="B221" t="n">
-        <v>0.8227847066951595</v>
+        <v>0.8101211478607679</v>
       </c>
       <c r="C221" t="n">
-        <v>0.1772152933048405</v>
+        <v>0.189878852139232</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>1971</v>
       </c>
       <c r="B222" t="n">
-        <v>0.8231682446224728</v>
+        <v>0.8106504101589016</v>
       </c>
       <c r="C222" t="n">
-        <v>0.1768317553775272</v>
+        <v>0.1893495898410985</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>1972</v>
       </c>
       <c r="B223" t="n">
-        <v>0.8237161847804424</v>
+        <v>0.8104012716639875</v>
       </c>
       <c r="C223" t="n">
-        <v>0.1762838152195577</v>
+        <v>0.1895987283360125</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>1973</v>
       </c>
       <c r="B224" t="n">
-        <v>0.824313494788557</v>
+        <v>0.8108369053670438</v>
       </c>
       <c r="C224" t="n">
-        <v>0.1756865052114431</v>
+        <v>0.1891630946329562</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>1974</v>
       </c>
       <c r="B225" t="n">
-        <v>0.8250136664503399</v>
+        <v>0.8115476776653776</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1749863335496601</v>
+        <v>0.1884523223346224</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>1975</v>
       </c>
       <c r="B226" t="n">
-        <v>0.8254895685495569</v>
+        <v>0.8119444615207198</v>
       </c>
       <c r="C226" t="n">
-        <v>0.174510431450443</v>
+        <v>0.1880555384792803</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>1976</v>
       </c>
       <c r="B227" t="n">
-        <v>0.8259790228985997</v>
+        <v>0.8128008018374271</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1740209771014003</v>
+        <v>0.187199198162573</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>1977</v>
       </c>
       <c r="B228" t="n">
-        <v>0.8265288289491348</v>
+        <v>0.8128714297167733</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1734711710508651</v>
+        <v>0.1871285702832267</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>1978</v>
       </c>
       <c r="B229" t="n">
-        <v>0.8272171091015498</v>
+        <v>0.8131826027391528</v>
       </c>
       <c r="C229" t="n">
-        <v>0.1727828908984503</v>
+        <v>0.1868173972608472</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>1979</v>
       </c>
       <c r="B230" t="n">
-        <v>0.8276256241942083</v>
+        <v>0.813276998095381</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1723743758057917</v>
+        <v>0.186723001904619</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>1980</v>
       </c>
       <c r="B231" t="n">
-        <v>0.8281759125510346</v>
+        <v>0.8134356777836155</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1718240874489654</v>
+        <v>0.1865643222163845</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>1981</v>
       </c>
       <c r="B232" t="n">
-        <v>0.8287461714082515</v>
+        <v>0.8137638560754288</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1712538285917485</v>
+        <v>0.1862361439245712</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>1982</v>
       </c>
       <c r="B233" t="n">
-        <v>0.8290751147573308</v>
+        <v>0.8139222077980043</v>
       </c>
       <c r="C233" t="n">
-        <v>0.1709248852426692</v>
+        <v>0.1860777922019957</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>1983</v>
       </c>
       <c r="B234" t="n">
-        <v>0.829441341538167</v>
+        <v>0.8143238588614832</v>
       </c>
       <c r="C234" t="n">
-        <v>0.170558658461833</v>
+        <v>0.1856761411385168</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>1984</v>
       </c>
       <c r="B235" t="n">
-        <v>0.8298474997920613</v>
+        <v>0.8149778446533141</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1701525002079387</v>
+        <v>0.1850221553466859</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>1985</v>
       </c>
       <c r="B236" t="n">
-        <v>0.8304269519621589</v>
+        <v>0.8156944456002775</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1695730480378411</v>
+        <v>0.1843055543997225</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>1986</v>
       </c>
       <c r="B237" t="n">
-        <v>0.8309135306283515</v>
+        <v>0.8162087916504749</v>
       </c>
       <c r="C237" t="n">
-        <v>0.1690864693716485</v>
+        <v>0.1837912083495251</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>1987</v>
       </c>
       <c r="B238" t="n">
-        <v>0.8315479515154155</v>
+        <v>0.8172721645781506</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1684520484845845</v>
+        <v>0.1827278354218495</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>1988</v>
       </c>
       <c r="B239" t="n">
-        <v>0.8320677068896235</v>
+        <v>0.8170783484194625</v>
       </c>
       <c r="C239" t="n">
-        <v>0.1679322931103764</v>
+        <v>0.1829216515805375</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>1989</v>
       </c>
       <c r="B240" t="n">
-        <v>0.8325980219928677</v>
+        <v>0.8178936078999077</v>
       </c>
       <c r="C240" t="n">
-        <v>0.1674019780071323</v>
+        <v>0.1821063921000922</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>1990</v>
       </c>
       <c r="B241" t="n">
-        <v>0.8331451886569994</v>
+        <v>0.8182615150178015</v>
       </c>
       <c r="C241" t="n">
-        <v>0.1668548113430006</v>
+        <v>0.1817384849821985</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>1991</v>
       </c>
       <c r="B242" t="n">
-        <v>0.8337389226881448</v>
+        <v>0.8189569802319853</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1662610773118552</v>
+        <v>0.1810430197680147</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>1992</v>
       </c>
       <c r="B243" t="n">
-        <v>0.8341737795651702</v>
+        <v>0.8198120686974812</v>
       </c>
       <c r="C243" t="n">
-        <v>0.1658262204348298</v>
+        <v>0.1801879313025187</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>1993</v>
       </c>
       <c r="B244" t="n">
-        <v>0.8346494087405463</v>
+        <v>0.8201163057962422</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1653505912594537</v>
+        <v>0.1798836942037578</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>1994</v>
       </c>
       <c r="B245" t="n">
-        <v>0.8350685726747842</v>
+        <v>0.8204795309130338</v>
       </c>
       <c r="C245" t="n">
-        <v>0.1649314273252159</v>
+        <v>0.1795204690869662</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>1995</v>
       </c>
       <c r="B246" t="n">
-        <v>0.8355375348040952</v>
+        <v>0.8208055652470887</v>
       </c>
       <c r="C246" t="n">
-        <v>0.1644624651959048</v>
+        <v>0.1791944347529113</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>1996</v>
       </c>
       <c r="B247" t="n">
-        <v>0.8360477174337949</v>
+        <v>0.8209741186910706</v>
       </c>
       <c r="C247" t="n">
-        <v>0.1639522825662051</v>
+        <v>0.1790258813089294</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>1997</v>
       </c>
       <c r="B248" t="n">
-        <v>0.8365517132213945</v>
+        <v>0.8214629181006999</v>
       </c>
       <c r="C248" t="n">
-        <v>0.1634482867786054</v>
+        <v>0.1785370818993</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>1998</v>
       </c>
       <c r="B249" t="n">
-        <v>0.8371412971918837</v>
+        <v>0.8216723610711493</v>
       </c>
       <c r="C249" t="n">
-        <v>0.1628587028081163</v>
+        <v>0.1783276389288507</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>1999</v>
       </c>
       <c r="B250" t="n">
-        <v>0.8376013217559063</v>
+        <v>0.8218863018294017</v>
       </c>
       <c r="C250" t="n">
-        <v>0.1623986782440937</v>
+        <v>0.1781136981705983</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>2000</v>
       </c>
       <c r="B251" t="n">
-        <v>0.8380078481973109</v>
+        <v>0.8223167044030431</v>
       </c>
       <c r="C251" t="n">
-        <v>0.1619921518026891</v>
+        <v>0.177683295596957</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>2001</v>
       </c>
       <c r="B252" t="n">
-        <v>0.8384562263079445</v>
+        <v>0.8227154666735205</v>
       </c>
       <c r="C252" t="n">
-        <v>0.1615437736920556</v>
+        <v>0.1772845333264795</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>2002</v>
       </c>
       <c r="B253" t="n">
-        <v>0.8388602473502134</v>
+        <v>0.8228911527926643</v>
       </c>
       <c r="C253" t="n">
-        <v>0.1611397526497867</v>
+        <v>0.1771088472073357</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>2003</v>
       </c>
       <c r="B254" t="n">
-        <v>0.8393857300000102</v>
+        <v>0.8231895786404466</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1606142699999899</v>
+        <v>0.1768104213595534</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>2004</v>
       </c>
       <c r="B255" t="n">
-        <v>0.8398335709782541</v>
+        <v>0.8235033836995428</v>
       </c>
       <c r="C255" t="n">
-        <v>0.1601664290217459</v>
+        <v>0.1764966163004572</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>2005</v>
       </c>
       <c r="B256" t="n">
-        <v>0.8403319864543168</v>
+        <v>0.8244345889552174</v>
       </c>
       <c r="C256" t="n">
-        <v>0.1596680135456832</v>
+        <v>0.1755654110447826</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>2006</v>
       </c>
       <c r="B257" t="n">
-        <v>0.8408247276591736</v>
+        <v>0.8247076900426344</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1591752723408264</v>
+        <v>0.1752923099573655</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>2007</v>
       </c>
       <c r="B258" t="n">
-        <v>0.841113527762861</v>
+        <v>0.8249293498292786</v>
       </c>
       <c r="C258" t="n">
-        <v>0.158886472237139</v>
+        <v>0.1750706501707215</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>2008</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8414950981407223</v>
+        <v>0.8252752257583489</v>
       </c>
       <c r="C259" t="n">
-        <v>0.1585049018592776</v>
+        <v>0.1747247742416511</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>2009</v>
       </c>
       <c r="B260" t="n">
-        <v>0.8419826285146434</v>
+        <v>0.8254958313902733</v>
       </c>
       <c r="C260" t="n">
-        <v>0.1580173714853566</v>
+        <v>0.1745041686097267</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>2010</v>
       </c>
       <c r="B261" t="n">
-        <v>0.842446602959892</v>
+        <v>0.8253380762271865</v>
       </c>
       <c r="C261" t="n">
-        <v>0.157553397040108</v>
+        <v>0.1746619237728136</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>2011</v>
       </c>
       <c r="B262" t="n">
-        <v>0.842848231485499</v>
+        <v>0.8256514323440725</v>
       </c>
       <c r="C262" t="n">
-        <v>0.157151768514501</v>
+        <v>0.1743485676559275</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>2012</v>
       </c>
       <c r="B263" t="n">
-        <v>0.8433645735217565</v>
+        <v>0.8258136674916601</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1566354264782434</v>
+        <v>0.1741863325083399</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>2013</v>
       </c>
       <c r="B264" t="n">
-        <v>0.8437066921331388</v>
+        <v>0.8263582860977299</v>
       </c>
       <c r="C264" t="n">
-        <v>0.1562933078668613</v>
+        <v>0.1736417139022701</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>2014</v>
       </c>
       <c r="B265" t="n">
-        <v>0.8441697146611908</v>
+        <v>0.8268715930791223</v>
       </c>
       <c r="C265" t="n">
-        <v>0.1558302853388091</v>
+        <v>0.1731284069208777</v>
       </c>
     </row>
   </sheetData>
